--- a/output.xlsx
+++ b/output.xlsx
@@ -12,13 +12,16 @@
     <sheet name="debentures" sheetId="3" r:id="rId3"/>
     <sheet name="acoes" sheetId="4" r:id="rId4"/>
     <sheet name="cotas" sheetId="5" r:id="rId5"/>
+    <sheet name="caixa" sheetId="6" r:id="rId6"/>
+    <sheet name="provisao" sheetId="7" r:id="rId7"/>
+    <sheet name="outrasdespesas" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -26,6 +29,12 @@
     <t>Valor</t>
   </si>
   <si>
+    <t>Preco</t>
+  </si>
+  <si>
+    <t>Qtt</t>
+  </si>
+  <si>
     <t>Fundo</t>
   </si>
   <si>
@@ -44,6 +53,9 @@
     <t>BBDC4</t>
   </si>
   <si>
+    <t>BOVA11</t>
+  </si>
+  <si>
     <t>CMIG4</t>
   </si>
   <si>
@@ -164,6 +176,12 @@
     <t>C793386</t>
   </si>
   <si>
+    <t>C816360A</t>
+  </si>
+  <si>
+    <t>C816361A</t>
+  </si>
+  <si>
     <t>C779389</t>
   </si>
   <si>
@@ -173,6 +191,9 @@
     <t>C793952</t>
   </si>
   <si>
+    <t>C816362A</t>
+  </si>
+  <si>
     <t>C779384</t>
   </si>
   <si>
@@ -191,6 +212,12 @@
     <t>C799842</t>
   </si>
   <si>
+    <t>C815108A</t>
+  </si>
+  <si>
+    <t>C815109A</t>
+  </si>
+  <si>
     <t>C779386</t>
   </si>
   <si>
@@ -200,6 +227,9 @@
     <t>C780224</t>
   </si>
   <si>
+    <t>C815110A</t>
+  </si>
+  <si>
     <t>BB</t>
   </si>
   <si>
@@ -242,6 +272,9 @@
     <t>BRBBDCACNPR8</t>
   </si>
   <si>
+    <t>BRBOVACTF003</t>
+  </si>
+  <si>
     <t>BRCMIGACNPR3</t>
   </si>
   <si>
@@ -284,6 +317,9 @@
     <t>BRALT9CTF009</t>
   </si>
   <si>
+    <t>BRXPR2CTF005</t>
+  </si>
+  <si>
     <t>BR0CRTCTF005</t>
   </si>
   <si>
@@ -317,9 +353,6 @@
     <t>BRABL4CTF000</t>
   </si>
   <si>
-    <t>BR077QCTF001</t>
-  </si>
-  <si>
     <t>BR05OFCTF009</t>
   </si>
   <si>
@@ -341,7 +374,34 @@
     <t>BR05P0CTF004</t>
   </si>
   <si>
+    <t>BR09TYCTF001</t>
+  </si>
+  <si>
     <t>BR041FCTF000</t>
+  </si>
+  <si>
+    <t>isininstituicao</t>
+  </si>
+  <si>
+    <t>saldo</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>codprov</t>
+  </si>
+  <si>
+    <t>credeb</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>coddesp</t>
   </si>
 </sst>
 </file>
@@ -699,13 +759,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,50 +775,74 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1223947.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1160783.47</v>
+      </c>
+      <c r="D2">
+        <v>3934.85922</v>
+      </c>
+      <c r="E2">
+        <v>295</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>779108.5699999999</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>764268.9399999999</v>
+      </c>
+      <c r="D3">
+        <v>4022.468103</v>
+      </c>
+      <c r="E3">
+        <v>190</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>205028.57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>201123.41</v>
+      </c>
+      <c r="D4">
+        <v>4022.468103</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -766,125 +850,179 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>179532.39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1337852.13</v>
+      </c>
+      <c r="D5">
+        <v>3934.85922</v>
+      </c>
+      <c r="E5">
+        <v>340</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>281539.43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1383729.03</v>
+      </c>
+      <c r="D6">
+        <v>4022.468103</v>
+      </c>
+      <c r="E6">
+        <v>344</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>32642.25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>176980.56</v>
+      </c>
+      <c r="D7">
+        <v>4022.285544</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1908527.84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>277537.7</v>
+      </c>
+      <c r="D8">
+        <v>4022.285544</v>
+      </c>
+      <c r="E8">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>1857558.85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>32178.28</v>
+      </c>
+      <c r="D9">
+        <v>4022.285544</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1796050.28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>695855.4</v>
+      </c>
+      <c r="D10">
+        <v>4022.285544</v>
+      </c>
+      <c r="E10">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>771709.08</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1813740.1</v>
+      </c>
+      <c r="D11">
+        <v>3942.913259</v>
+      </c>
+      <c r="E11">
+        <v>460</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>298726.1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1821690.16</v>
+      </c>
+      <c r="D12">
+        <v>4021.391083</v>
+      </c>
+      <c r="E12">
+        <v>453</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>41489.74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>1761369.29</v>
+      </c>
+      <c r="D13">
+        <v>4021.391083</v>
+      </c>
+      <c r="E13">
+        <v>438</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -892,13 +1030,19 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>967026.72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>733381.87</v>
+      </c>
+      <c r="D14">
+        <v>3942.913259</v>
+      </c>
+      <c r="E14">
+        <v>186</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -906,13 +1050,19 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>803815.46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>283889.75</v>
+      </c>
+      <c r="D15">
+        <v>3942.913259</v>
+      </c>
+      <c r="E15">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -920,822 +1070,1376 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>102007.04</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>39429.13</v>
+      </c>
+      <c r="D16">
+        <v>3942.913259</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>1534996</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>2026657.42</v>
+      </c>
+      <c r="D17">
+        <v>3942.913259</v>
+      </c>
+      <c r="E17">
+        <v>514</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>2533476.38</v>
+      </c>
+      <c r="D18">
+        <v>4021.391083</v>
+      </c>
+      <c r="E18">
+        <v>630</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C18">
-        <v>369007.4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
       <c r="C19">
-        <v>400891.72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>953169.41</v>
+      </c>
+      <c r="D19">
+        <v>4021.811855</v>
+      </c>
+      <c r="E19">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>1357620</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>792296.9399999999</v>
+      </c>
+      <c r="D20">
+        <v>4021.811855</v>
+      </c>
+      <c r="E20">
+        <v>197</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>1140392.22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>100545.3</v>
+      </c>
+      <c r="D21">
+        <v>4021.811855</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>1020498</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>1307088.85</v>
+      </c>
+      <c r="D22">
+        <v>4021.811855</v>
+      </c>
+      <c r="E22">
+        <v>325</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>1372750</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>1465921.77</v>
+      </c>
+      <c r="D23">
+        <v>977.28118205</v>
+      </c>
+      <c r="E23">
+        <v>1500</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>570810</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>289309.41</v>
+      </c>
+      <c r="D24">
+        <v>15.21</v>
+      </c>
+      <c r="E24">
+        <v>19021</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>1074.97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>5323208</v>
+      </c>
+      <c r="D25">
+        <v>106.04</v>
+      </c>
+      <c r="E25">
+        <v>50200</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>1097.37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>354244.96</v>
+      </c>
+      <c r="D26">
+        <v>10.48</v>
+      </c>
+      <c r="E26">
+        <v>33802</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>28075830000105</v>
+      <c r="B27" t="s">
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>373114.8435347655</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>1238556</v>
+      </c>
+      <c r="D27">
+        <v>17.06</v>
+      </c>
+      <c r="E27">
+        <v>72600</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>25307212000147</v>
+      <c r="B28" t="s">
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>1710408.326177726</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>1070393.46</v>
+      </c>
+      <c r="D28">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="E28">
+        <v>121774</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>19726267000199</v>
+      <c r="B29" t="s">
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>2847899.806144498</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>979029</v>
+      </c>
+      <c r="D29">
+        <v>27.15</v>
+      </c>
+      <c r="E29">
+        <v>36060</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>11145320000156</v>
+      <c r="B30" t="s">
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>3712145.335436909</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>1566360</v>
+      </c>
+      <c r="D30">
+        <v>82.44</v>
+      </c>
+      <c r="E30">
+        <v>19000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>28075715000122</v>
+      <c r="B31" t="s">
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>2165690.426455278</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>46587</v>
+      </c>
+      <c r="D31">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="E31">
+        <v>5300</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>38443675000188</v>
+      <c r="B32" t="s">
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>1390626.800013639</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>512457</v>
+      </c>
+      <c r="D32">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="E32">
+        <v>58300</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>31608459000104</v>
+      <c r="B33" t="s">
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>1618476.450648358</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>31666901000140</v>
+      <c r="B34" t="s">
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>1120561.841496252</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>2063.83</v>
+      </c>
+      <c r="D34">
+        <v>2063.83</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>18644570000180</v>
+        <v>28075830000105</v>
       </c>
       <c r="C35">
-        <v>1892361.342580621</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>356641.7924604942</v>
+      </c>
+      <c r="D35">
+        <v>1.7779165</v>
+      </c>
+      <c r="E35">
+        <v>200595.35555269</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>14781366000150</v>
+        <v>25307212000147</v>
       </c>
       <c r="C36">
-        <v>3483493.842615973</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>1537358.564549217</v>
+      </c>
+      <c r="D36">
+        <v>1.4365283</v>
+      </c>
+      <c r="E36">
+        <v>1070190.23888998</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>44162109000109</v>
+        <v>19726267000199</v>
       </c>
       <c r="C37">
-        <v>422136.0961220327</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>2649546.491427763</v>
+      </c>
+      <c r="D37">
+        <v>323.2427095</v>
+      </c>
+      <c r="E37">
+        <v>8196.771074980001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>45683352000127</v>
+        <v>11145320000156</v>
       </c>
       <c r="C38">
-        <v>422136.1419216305</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>3453083.184445275</v>
+      </c>
+      <c r="D38">
+        <v>754.00108084</v>
+      </c>
+      <c r="E38">
+        <v>4579.67935616</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>45688718000150</v>
+        <v>28075715000122</v>
       </c>
       <c r="C39">
-        <v>422136.1419216305</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>1993445.526530835</v>
+      </c>
+      <c r="D39">
+        <v>1.7189576</v>
+      </c>
+      <c r="E39">
+        <v>1159682.77898817</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>46328929000145</v>
+        <v>38443675000188</v>
       </c>
       <c r="C40">
-        <v>422136.1535245165</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>1248156.546213297</v>
+      </c>
+      <c r="D40">
+        <v>0.715626</v>
+      </c>
+      <c r="E40">
+        <v>1744146.44830302</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>46098698000120</v>
+        <v>31608459000104</v>
       </c>
       <c r="C41">
-        <v>422136.1406353491</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>1572776.812373577</v>
+      </c>
+      <c r="D41">
+        <v>1.3975592</v>
+      </c>
+      <c r="E41">
+        <v>1125374.01805489</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>32319500000187</v>
+        <v>31666901000140</v>
       </c>
       <c r="C42">
-        <v>422136.1986642608</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>972921.6313008387</v>
+      </c>
+      <c r="D42">
+        <v>1.5876465</v>
+      </c>
+      <c r="E42">
+        <v>612807.46772083</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>46328987000179</v>
+        <v>18644570000180</v>
       </c>
       <c r="C43">
-        <v>422136.117230301</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>867030.3084476645</v>
+      </c>
+      <c r="D43">
+        <v>3.075902</v>
+      </c>
+      <c r="E43">
+        <v>281878.39158974</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>45688636000106</v>
+        <v>14781366000150</v>
       </c>
       <c r="C44">
-        <v>422136.1349136007</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>3114525.369992396</v>
+      </c>
+      <c r="D44">
+        <v>3.4690066</v>
+      </c>
+      <c r="E44">
+        <v>897814.7720999999</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>46328680000178</v>
+        <v>10843445000197</v>
       </c>
       <c r="C45">
-        <v>422136.1715673463</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>576.1015096453109</v>
+      </c>
+      <c r="D45">
+        <v>2.55429217</v>
+      </c>
+      <c r="E45">
+        <v>225.54252658</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>46328752000187</v>
+        <v>44162109000109</v>
       </c>
       <c r="C46">
-        <v>422136.1661519013</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>52800.00000000491</v>
+      </c>
+      <c r="D46">
+        <v>1.03762088</v>
+      </c>
+      <c r="E46">
+        <v>50885.63753652</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>31366337000140</v>
+        <v>45683352000127</v>
       </c>
       <c r="C47">
-        <v>3587144.102994898</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>52800.00643099076</v>
+      </c>
+      <c r="D47">
+        <v>1.03763817</v>
+      </c>
+      <c r="E47">
+        <v>50884.79583494</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>18422272000145</v>
+        <v>45688718000150</v>
       </c>
       <c r="C48">
-        <v>1012673.405501094</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>52799.9999999994</v>
+      </c>
+      <c r="D48">
+        <v>1.03763816</v>
+      </c>
+      <c r="E48">
+        <v>50884.79012761</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>38444031000104</v>
+        <v>46328929000145</v>
       </c>
       <c r="C49">
-        <v>1245073.394239374</v>
-      </c>
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>52799.99999999937</v>
+      </c>
+      <c r="D49">
+        <v>1.03763616</v>
+      </c>
+      <c r="E49">
+        <v>50884.8882059</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>32683901000111</v>
+        <v>46098698000120</v>
       </c>
       <c r="C50">
-        <v>1689447.173775037</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>52800.00000000219</v>
+      </c>
+      <c r="D50">
+        <v>1.03755751</v>
+      </c>
+      <c r="E50">
+        <v>50888.74543446</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>35700369000191</v>
+        <v>32319500000187</v>
       </c>
       <c r="C51">
-        <v>1065385.961477375</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>52799.99919457705</v>
+      </c>
+      <c r="D51">
+        <v>1.0376583</v>
+      </c>
+      <c r="E51">
+        <v>50883.80172411</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>41000792000181</v>
+        <v>46328987000179</v>
       </c>
       <c r="C52">
-        <v>2320986.616499261</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>52800.0000000052</v>
+      </c>
+      <c r="D52">
+        <v>1.03763931</v>
+      </c>
+      <c r="E52">
+        <v>50884.73373277</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>28951307000197</v>
+        <v>45688636000106</v>
       </c>
       <c r="C53">
-        <v>5023838.535056137</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>52799.99999999659</v>
+      </c>
+      <c r="D53">
+        <v>1.03756913</v>
+      </c>
+      <c r="E53">
+        <v>50888.17551848</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>36857756000107</v>
+        <v>46328680000178</v>
       </c>
       <c r="C54">
-        <v>1320155.253433125</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>52799.99241395215</v>
+      </c>
+      <c r="D54">
+        <v>1.03763637</v>
+      </c>
+      <c r="E54">
+        <v>50884.87059677</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>40319225000120</v>
+        <v>46328752000187</v>
       </c>
       <c r="C55">
-        <v>64657.61148708344</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>52799.99135018147</v>
+      </c>
+      <c r="D55">
+        <v>1.03763634</v>
+      </c>
+      <c r="E55">
+        <v>50884.87104276</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>40319218000128</v>
+        <v>31366337000140</v>
       </c>
       <c r="C56">
-        <v>272358.8750920928</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>3196790.066186767</v>
+      </c>
+      <c r="D56">
+        <v>2.1034743</v>
+      </c>
+      <c r="E56">
+        <v>1519766.63854974</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>13000859000142</v>
+        <v>18422272000145</v>
       </c>
       <c r="C57">
-        <v>1125716.964196872</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>1002201.133523444</v>
+      </c>
+      <c r="D57">
+        <v>3.2226265</v>
+      </c>
+      <c r="E57">
+        <v>310988.91960438</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>19009392000188</v>
+        <v>32683901000111</v>
       </c>
       <c r="C58">
-        <v>2260539.815418385</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>1678768.623345524</v>
+      </c>
+      <c r="D58">
+        <v>1.3524254</v>
+      </c>
+      <c r="E58">
+        <v>1241302.19925293</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>31608483000135</v>
+        <v>35700369000191</v>
       </c>
       <c r="C59">
-        <v>1992651.762067936</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>1066577.937918514</v>
+      </c>
+      <c r="D59">
+        <v>1.3468497</v>
+      </c>
+      <c r="E59">
+        <v>791905.68770852</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>29236579000178</v>
+        <v>41000792000181</v>
       </c>
       <c r="C60">
-        <v>2199025.605863582</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>2306885.492730565</v>
+      </c>
+      <c r="D60">
+        <v>1.2025441</v>
+      </c>
+      <c r="E60">
+        <v>1918337.54182534</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>35819274000191</v>
+        <v>28951307000197</v>
       </c>
       <c r="C61">
-        <v>1150729.938160377</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>5023874.354219838</v>
+      </c>
+      <c r="D61">
+        <v>2.1038491</v>
+      </c>
+      <c r="E61">
+        <v>2387944.24667617</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>31713505000127</v>
+        <v>36857756000107</v>
       </c>
       <c r="C62">
-        <v>653049.9529144288</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>1267464.705183074</v>
+      </c>
+      <c r="D62">
+        <v>1.1653121</v>
+      </c>
+      <c r="E62">
+        <v>1087661.15548193</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>31713585000110</v>
+        <v>40319225000120</v>
       </c>
       <c r="C63">
-        <v>21804.49271842448</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>64922.84989732739</v>
+      </c>
+      <c r="D63">
+        <v>1.1332439</v>
+      </c>
+      <c r="E63">
+        <v>57289.3883632</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>30654823000100</v>
+        <v>40319218000128</v>
       </c>
       <c r="C64">
-        <v>1919035.454749282</v>
-      </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>294968.6061028617</v>
+      </c>
+      <c r="D64">
+        <v>121.1709247</v>
+      </c>
+      <c r="E64">
+        <v>2434.31835511</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>44162109000109</v>
+        <v>13000859000142</v>
       </c>
       <c r="C65">
-        <v>815767.2341136986</v>
-      </c>
-      <c r="D65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>1113934.265321631</v>
+      </c>
+      <c r="D65">
+        <v>4.3322023</v>
+      </c>
+      <c r="E65">
+        <v>257128.86614774</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>45683352000127</v>
+        <v>19009392000188</v>
       </c>
       <c r="C66">
-        <v>815767.2395481899</v>
-      </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>2260617.827280242</v>
+      </c>
+      <c r="D66">
+        <v>5.3174397</v>
+      </c>
+      <c r="E66">
+        <v>425132.76216</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>45688718000150</v>
+        <v>31608483000135</v>
       </c>
       <c r="C67">
-        <v>815767.2395481899</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>1910655.553373003</v>
+      </c>
+      <c r="D67">
+        <v>1.8453149</v>
+      </c>
+      <c r="E67">
+        <v>1035408.94476764</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>46328929000145</v>
+        <v>29236579000178</v>
       </c>
       <c r="C68">
-        <v>815767.2273253397</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>2175563.018417518</v>
+      </c>
+      <c r="D68">
+        <v>1.6953426</v>
+      </c>
+      <c r="E68">
+        <v>1283258.62773549</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>46098698000120</v>
+        <v>35819274000191</v>
       </c>
       <c r="C69">
-        <v>815767.2321397467</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>1153967.593240403</v>
+      </c>
+      <c r="D69">
+        <v>1.24521307</v>
+      </c>
+      <c r="E69">
+        <v>926723.0011008499</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>32319500000187</v>
+        <v>31713505000127</v>
       </c>
       <c r="C70">
-        <v>815767.2391563394</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>658753.6165944492</v>
+      </c>
+      <c r="D70">
+        <v>2040.184457</v>
+      </c>
+      <c r="E70">
+        <v>322.88924383</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>46328987000179</v>
+        <v>31713585000110</v>
       </c>
       <c r="C71">
-        <v>815767.2293680699</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>67004.21483976321</v>
+      </c>
+      <c r="D71">
+        <v>1.140927</v>
+      </c>
+      <c r="E71">
+        <v>58727.87201965</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>45688636000106</v>
+        <v>42776581000106</v>
       </c>
       <c r="C72">
-        <v>815767.2330346226</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>1612938.595057294</v>
+      </c>
+      <c r="D72">
+        <v>1.11454957</v>
+      </c>
+      <c r="E72">
+        <v>1447166.31585735</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>46328680000178</v>
+        <v>30654823000100</v>
       </c>
       <c r="C73">
-        <v>815767.2349968388</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>1925422.934609332</v>
+      </c>
+      <c r="D73">
+        <v>1283.61528772</v>
+      </c>
+      <c r="E73">
+        <v>1500.00000236</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
+        <v>10843445000197</v>
+      </c>
+      <c r="C74">
+        <v>812554.2595318349</v>
+      </c>
+      <c r="D74">
+        <v>2.55564653</v>
+      </c>
+      <c r="E74">
+        <v>317944.69618294</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>44162109000109</v>
+      </c>
+      <c r="C75">
+        <v>118056.5466508994</v>
+      </c>
+      <c r="D75">
+        <v>1.03812992</v>
+      </c>
+      <c r="E75">
+        <v>113720.39701052</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>45683352000127</v>
+      </c>
+      <c r="C76">
+        <v>118056.5187938414</v>
+      </c>
+      <c r="D76">
+        <v>1.03814721</v>
+      </c>
+      <c r="E76">
+        <v>113718.47620131</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>45688718000150</v>
+      </c>
+      <c r="C77">
+        <v>118056.5061473018</v>
+      </c>
+      <c r="D77">
+        <v>1.03814719</v>
+      </c>
+      <c r="E77">
+        <v>113718.46621027</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>46328929000145</v>
+      </c>
+      <c r="C78">
+        <v>118056.365647784</v>
+      </c>
+      <c r="D78">
+        <v>1.0381452</v>
+      </c>
+      <c r="E78">
+        <v>113718.54885789</v>
+      </c>
+      <c r="F78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>46098698000120</v>
+      </c>
+      <c r="C79">
+        <v>118056.4733004978</v>
+      </c>
+      <c r="D79">
+        <v>1.03806651</v>
+      </c>
+      <c r="E79">
+        <v>113727.2729283</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>32319500000187</v>
+      </c>
+      <c r="C80">
+        <v>118056.3850031441</v>
+      </c>
+      <c r="D80">
+        <v>1.03816734</v>
+      </c>
+      <c r="E80">
+        <v>113716.14233515</v>
+      </c>
+      <c r="F80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>46328987000179</v>
+      </c>
+      <c r="C81">
+        <v>118056.4984358945</v>
+      </c>
+      <c r="D81">
+        <v>1.03814835</v>
+      </c>
+      <c r="E81">
+        <v>113718.33171617</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>45688636000106</v>
+      </c>
+      <c r="C82">
+        <v>118056.4860964323</v>
+      </c>
+      <c r="D82">
+        <v>1.03807814</v>
+      </c>
+      <c r="E82">
+        <v>113726.01112324</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>46328680000178</v>
+      </c>
+      <c r="C83">
+        <v>118056.4355818478</v>
+      </c>
+      <c r="D83">
+        <v>1.03814541</v>
+      </c>
+      <c r="E83">
+        <v>113718.59321889</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
         <v>46328752000187</v>
       </c>
-      <c r="C74">
-        <v>815767.2350758371</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
+      <c r="C84">
+        <v>118056.4381036023</v>
+      </c>
+      <c r="D84">
+        <v>1.03814538</v>
+      </c>
+      <c r="E84">
+        <v>113718.59893419</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +2449,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1753,82 +2457,82 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1836,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>760199</v>
@@ -1866,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4148.973558</v>
+        <v>3934.85922</v>
       </c>
       <c r="N2">
         <v>1579.541935</v>
@@ -1878,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1223947.2</v>
+        <v>1160783.47</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1887,28 +2591,28 @@
         <v>5.81</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U2">
         <v>100</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -1916,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>760199</v>
@@ -1946,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4100.571412</v>
+        <v>4022.468103</v>
       </c>
       <c r="N3">
         <v>1868.916525</v>
@@ -1958,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>779108.5699999999</v>
+        <v>764268.9399999999</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1967,28 +2671,28 @@
         <v>5.69</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U3">
         <v>100</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -1996,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>760199</v>
@@ -2026,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4100.571412</v>
+        <v>4022.468103</v>
       </c>
       <c r="N4">
         <v>1868.916525</v>
@@ -2038,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>205028.57</v>
+        <v>201123.41</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2047,28 +2751,28 @@
         <v>5.63</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U4">
         <v>100</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Z4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -2082,16 +2786,16 @@
         <v>760199</v>
       </c>
       <c r="E5">
-        <v>20160115</v>
+        <v>20060215</v>
       </c>
       <c r="F5">
-        <v>20220921</v>
+        <v>20221114</v>
       </c>
       <c r="G5">
-        <v>20260815</v>
+        <v>20350515</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2100,55 +2804,55 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4009.985937</v>
+        <v>4071.704287</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4080.281524</v>
+        <v>3934.85922</v>
       </c>
       <c r="N5">
-        <v>2782.803384</v>
+        <v>1579.541935</v>
       </c>
       <c r="O5">
-        <v>122443.34</v>
+        <v>537044.25</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>179532.39</v>
+        <v>1337852.13</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>5.77</v>
+        <v>6.06</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U5">
         <v>100</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -2156,22 +2860,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>760199</v>
       </c>
       <c r="E6">
-        <v>20160115</v>
+        <v>20100115</v>
       </c>
       <c r="F6">
-        <v>20220921</v>
+        <v>20221114</v>
       </c>
       <c r="G6">
-        <v>20260815</v>
+        <v>20300815</v>
       </c>
       <c r="H6">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2180,55 +2884,55 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4009.985937</v>
+        <v>4016.416826</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4080.281524</v>
+        <v>4022.468103</v>
       </c>
       <c r="N6">
-        <v>2782.803384</v>
+        <v>1868.916525</v>
       </c>
       <c r="O6">
-        <v>192013.43</v>
+        <v>642907.28</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>281539.43</v>
+        <v>1383729.03</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>5.77</v>
+        <v>6.06</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U6">
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Z6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -2236,7 +2940,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>760199</v>
@@ -2245,13 +2949,13 @@
         <v>20160115</v>
       </c>
       <c r="F7">
-        <v>20221011</v>
+        <v>20220921</v>
       </c>
       <c r="G7">
         <v>20260815</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2260,55 +2964,55 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4022.656075</v>
+        <v>4009.985937</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4080.281524</v>
+        <v>4022.285544</v>
       </c>
       <c r="N7">
         <v>2782.803384</v>
       </c>
       <c r="O7">
-        <v>22262.42</v>
+        <v>122443.34</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32642.25</v>
+        <v>176980.56</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>5.71</v>
+        <v>5.77</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U7">
         <v>100</v>
       </c>
       <c r="V7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -2316,22 +3020,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>760199</v>
       </c>
       <c r="E8">
-        <v>20060215</v>
+        <v>20160115</v>
       </c>
       <c r="F8">
         <v>20220921</v>
       </c>
       <c r="G8">
-        <v>20350515</v>
+        <v>20260815</v>
       </c>
       <c r="H8">
-        <v>460</v>
+        <v>69</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2340,55 +3044,55 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4111.148329</v>
+        <v>4009.985937</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4148.973558</v>
+        <v>4022.285544</v>
       </c>
       <c r="N8">
-        <v>1579.541935</v>
+        <v>2782.803384</v>
       </c>
       <c r="O8">
-        <v>726589.29</v>
+        <v>192013.43</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1908527.84</v>
+        <v>277537.7</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U8">
         <v>100</v>
       </c>
       <c r="V8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Z8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -2396,22 +3100,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>760199</v>
       </c>
       <c r="E9">
-        <v>20100115</v>
+        <v>20160115</v>
       </c>
       <c r="F9">
-        <v>20220921</v>
+        <v>20221011</v>
       </c>
       <c r="G9">
-        <v>20300815</v>
+        <v>20260815</v>
       </c>
       <c r="H9">
-        <v>453</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2420,55 +3124,55 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4058.15794</v>
+        <v>4022.656075</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4100.571412</v>
+        <v>4022.285544</v>
       </c>
       <c r="N9">
-        <v>1868.916525</v>
+        <v>2782.803384</v>
       </c>
       <c r="O9">
-        <v>846619.1800000001</v>
+        <v>22262.42</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1857558.85</v>
+        <v>32178.28</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>5.69</v>
+        <v>5.71</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U9">
         <v>100</v>
       </c>
       <c r="V9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -2476,22 +3180,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>760199</v>
       </c>
       <c r="E10">
-        <v>20100115</v>
+        <v>20160115</v>
       </c>
       <c r="F10">
-        <v>20220922</v>
+        <v>20221114</v>
       </c>
       <c r="G10">
-        <v>20300815</v>
+        <v>20260815</v>
       </c>
       <c r="H10">
-        <v>438</v>
+        <v>173</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2500,55 +3204,55 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4078.464201</v>
+        <v>4013.020625</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4100.571412</v>
+        <v>4022.285544</v>
       </c>
       <c r="N10">
-        <v>1868.916525</v>
+        <v>2782.803384</v>
       </c>
       <c r="O10">
-        <v>818585.4300000001</v>
+        <v>481424.98</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1796050.28</v>
+        <v>695855.4</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>5.61</v>
+        <v>6.1</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U10">
         <v>100</v>
       </c>
       <c r="V10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -2556,7 +3260,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>760199</v>
@@ -2565,13 +3269,13 @@
         <v>20060215</v>
       </c>
       <c r="F11">
-        <v>20221011</v>
+        <v>20220921</v>
       </c>
       <c r="G11">
         <v>20350515</v>
       </c>
       <c r="H11">
-        <v>186</v>
+        <v>460</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2580,55 +3284,55 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4120.57686</v>
+        <v>4111.148329</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4148.973558</v>
+        <v>3942.913259</v>
       </c>
       <c r="N11">
         <v>1579.541935</v>
       </c>
       <c r="O11">
-        <v>293794.79</v>
+        <v>726589.29</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>771709.08</v>
+        <v>1813740.1</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U11">
         <v>100</v>
       </c>
       <c r="V11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -2636,22 +3340,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>760199</v>
       </c>
       <c r="E12">
-        <v>20060215</v>
+        <v>20100115</v>
       </c>
       <c r="F12">
-        <v>20221020</v>
+        <v>20220921</v>
       </c>
       <c r="G12">
-        <v>20350515</v>
+        <v>20300815</v>
       </c>
       <c r="H12">
-        <v>72</v>
+        <v>453</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2660,55 +3364,55 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4144.761205</v>
+        <v>4058.15794</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4148.973558</v>
+        <v>4021.391083</v>
       </c>
       <c r="N12">
-        <v>1579.541935</v>
+        <v>1868.916525</v>
       </c>
       <c r="O12">
-        <v>113727.01</v>
+        <v>846619.1800000001</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>298726.1</v>
+        <v>1821690.16</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U12">
         <v>100</v>
       </c>
       <c r="V12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -2716,22 +3420,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>760199</v>
       </c>
       <c r="E13">
-        <v>20060215</v>
+        <v>20100115</v>
       </c>
       <c r="F13">
-        <v>20221020</v>
+        <v>20220922</v>
       </c>
       <c r="G13">
-        <v>20350515</v>
+        <v>20300815</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>438</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2740,55 +3444,55 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4144.761205</v>
+        <v>4078.464201</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4148.973558</v>
+        <v>4021.391083</v>
       </c>
       <c r="N13">
-        <v>1579.541935</v>
+        <v>1868.916525</v>
       </c>
       <c r="O13">
-        <v>15795.41</v>
+        <v>818585.4300000001</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>41489.74</v>
+        <v>1761369.29</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>5.74</v>
+        <v>5.61</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U13">
         <v>100</v>
       </c>
       <c r="V13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -2802,16 +3506,16 @@
         <v>760199</v>
       </c>
       <c r="E14">
-        <v>20160115</v>
+        <v>20060215</v>
       </c>
       <c r="F14">
-        <v>20220921</v>
+        <v>20221011</v>
       </c>
       <c r="G14">
-        <v>20260815</v>
+        <v>20350515</v>
       </c>
       <c r="H14">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2820,55 +3524,55 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4009.985937</v>
+        <v>4120.57686</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4080.281524</v>
+        <v>3942.913259</v>
       </c>
       <c r="N14">
-        <v>2782.803384</v>
+        <v>1579.541935</v>
       </c>
       <c r="O14">
-        <v>659524.4</v>
+        <v>293794.79</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>967026.72</v>
+        <v>733381.87</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>5.77</v>
+        <v>5.79</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U14">
         <v>100</v>
       </c>
       <c r="V14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -2882,16 +3586,16 @@
         <v>760199</v>
       </c>
       <c r="E15">
-        <v>20160115</v>
+        <v>20060215</v>
       </c>
       <c r="F15">
-        <v>20220922</v>
+        <v>20221020</v>
       </c>
       <c r="G15">
-        <v>20260815</v>
+        <v>20350515</v>
       </c>
       <c r="H15">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2900,55 +3604,55 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4019.986251</v>
+        <v>4144.761205</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4080.281524</v>
+        <v>3942.913259</v>
       </c>
       <c r="N15">
-        <v>2782.803384</v>
+        <v>1579.541935</v>
       </c>
       <c r="O15">
-        <v>548212.26</v>
+        <v>113727.01</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>803815.46</v>
+        <v>283889.75</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="T15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U15">
         <v>100</v>
       </c>
       <c r="V15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Z15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -2962,16 +3666,16 @@
         <v>760199</v>
       </c>
       <c r="E16">
-        <v>20160115</v>
+        <v>20060215</v>
       </c>
       <c r="F16">
-        <v>20220922</v>
+        <v>20221020</v>
       </c>
       <c r="G16">
-        <v>20260815</v>
+        <v>20350515</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2980,55 +3684,535 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4019.986251</v>
+        <v>4144.761205</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4080.281524</v>
+        <v>3942.913259</v>
       </c>
       <c r="N16">
-        <v>2782.803384</v>
+        <v>1579.541935</v>
       </c>
       <c r="O16">
-        <v>69570.08</v>
+        <v>15795.41</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>102007.04</v>
+        <v>39429.13</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="T16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U16">
         <v>100</v>
       </c>
       <c r="V16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="1">
         <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>760199</v>
+      </c>
+      <c r="E17">
+        <v>20060215</v>
+      </c>
+      <c r="F17">
+        <v>20221111</v>
+      </c>
+      <c r="G17">
+        <v>20350515</v>
+      </c>
+      <c r="H17">
+        <v>514</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>4089.695923</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3942.913259</v>
+      </c>
+      <c r="N17">
+        <v>1579.541935</v>
+      </c>
+      <c r="O17">
+        <v>811884.55</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>2026657.42</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17">
+        <v>100</v>
+      </c>
+      <c r="V17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>760199</v>
+      </c>
+      <c r="E18">
+        <v>20100115</v>
+      </c>
+      <c r="F18">
+        <v>20221111</v>
+      </c>
+      <c r="G18">
+        <v>20300815</v>
+      </c>
+      <c r="H18">
+        <v>630</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>4028.455354</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4021.391083</v>
+      </c>
+      <c r="N18">
+        <v>1868.916525</v>
+      </c>
+      <c r="O18">
+        <v>1177417.41</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>2533476.38</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18">
+        <v>100</v>
+      </c>
+      <c r="V18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>760199</v>
+      </c>
+      <c r="E19">
+        <v>20160115</v>
+      </c>
+      <c r="F19">
+        <v>20220921</v>
+      </c>
+      <c r="G19">
+        <v>20260815</v>
+      </c>
+      <c r="H19">
+        <v>237</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>4009.985937</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4021.811855</v>
+      </c>
+      <c r="N19">
+        <v>2782.803384</v>
+      </c>
+      <c r="O19">
+        <v>659524.4</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>953169.41</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>5.77</v>
+      </c>
+      <c r="T19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19">
+        <v>100</v>
+      </c>
+      <c r="V19" t="s">
+        <v>46</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>760199</v>
+      </c>
+      <c r="E20">
+        <v>20160115</v>
+      </c>
+      <c r="F20">
+        <v>20220922</v>
+      </c>
+      <c r="G20">
+        <v>20260815</v>
+      </c>
+      <c r="H20">
+        <v>197</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>4019.986251</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4021.811855</v>
+      </c>
+      <c r="N20">
+        <v>2782.803384</v>
+      </c>
+      <c r="O20">
+        <v>548212.26</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>792296.9399999999</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>5.7</v>
+      </c>
+      <c r="T20" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20">
+        <v>100</v>
+      </c>
+      <c r="V20" t="s">
+        <v>46</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>760199</v>
+      </c>
+      <c r="E21">
+        <v>20160115</v>
+      </c>
+      <c r="F21">
+        <v>20220922</v>
+      </c>
+      <c r="G21">
+        <v>20260815</v>
+      </c>
+      <c r="H21">
+        <v>25</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>4019.986251</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>4021.811855</v>
+      </c>
+      <c r="N21">
+        <v>2782.803384</v>
+      </c>
+      <c r="O21">
+        <v>69570.08</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>100545.3</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>5.7</v>
+      </c>
+      <c r="T21" t="s">
+        <v>45</v>
+      </c>
+      <c r="U21">
+        <v>100</v>
+      </c>
+      <c r="V21" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>760199</v>
+      </c>
+      <c r="E22">
+        <v>20160115</v>
+      </c>
+      <c r="F22">
+        <v>20221111</v>
+      </c>
+      <c r="G22">
+        <v>20260815</v>
+      </c>
+      <c r="H22">
+        <v>325</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>4023.679859</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>4021.811855</v>
+      </c>
+      <c r="N22">
+        <v>2782.803384</v>
+      </c>
+      <c r="O22">
+        <v>904411.09</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1307088.85</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22">
+        <v>100</v>
+      </c>
+      <c r="V22" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3046,94 +4230,94 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -3141,19 +4325,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>20210630</v>
@@ -3183,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1023.33066599</v>
+        <v>977.28118205</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -3195,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1534996</v>
+        <v>1465921.77</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -3204,28 +4388,28 @@
         <v>21.68</v>
       </c>
       <c r="X2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y2">
         <v>100</v>
       </c>
       <c r="Z2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AC2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AE2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3235,7 +4419,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3243,55 +4427,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3299,10 +4483,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>19021</v>
@@ -3314,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>369007.4</v>
+        <v>289309.41</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3323,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.4</v>
+        <v>15.21</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3332,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -3341,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3349,13 +4533,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>33802</v>
+        <v>50200</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3364,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>400891.72</v>
+        <v>5323208</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3373,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.86</v>
+        <v>106.04</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3382,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -3391,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3399,13 +4583,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>72600</v>
+        <v>33802</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3414,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1357620</v>
+        <v>354244.96</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3423,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.7</v>
+        <v>10.48</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3432,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3441,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3449,13 +4633,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>105886</v>
+        <v>72600</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3464,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1140392.22</v>
+        <v>1238556</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3473,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.77</v>
+        <v>17.06</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3482,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -3491,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3499,13 +4683,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>36060</v>
+        <v>121774</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3514,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1020498</v>
+        <v>1070393.46</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3523,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.3</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3532,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3541,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3549,13 +4733,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>19000</v>
+        <v>36060</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3564,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1372750</v>
+        <v>979029</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3573,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>72.25</v>
+        <v>27.15</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3582,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3591,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3599,13 +4783,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>53000</v>
+        <v>19000</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3614,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>570810</v>
+        <v>1566360</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3623,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.77</v>
+        <v>82.44</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3632,19 +4816,122 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8">
+        <v>47</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>5300</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>46587</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9">
         <v>20221117</v>
       </c>
-      <c r="P8">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2332886000104</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>58300</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>512457</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10">
+        <v>20221117</v>
+      </c>
+      <c r="P10">
         <v>0.04</v>
       </c>
-      <c r="Q8">
+      <c r="Q10">
         <v>2332886000104</v>
       </c>
-      <c r="R8" t="s">
-        <v>14</v>
+      <c r="R10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3654,7 +4941,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3662,31 +4949,31 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3694,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>28075830000105</v>
@@ -3706,19 +4993,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.8600373</v>
+        <v>1.7779165</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>373114.8435347655</v>
+        <v>356641.7924604942</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3726,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>25307212000147</v>
@@ -3738,19 +5025,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.5982283</v>
+        <v>1.4365283</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>1710408.326177726</v>
+        <v>1537358.564549217</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3758,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>19726267000199</v>
@@ -3770,19 +5057,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>347.44166698</v>
+        <v>323.2427095</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4">
-        <v>2847899.806144498</v>
+        <v>2649546.491427763</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3790,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>11145320000156</v>
@@ -3802,19 +5089,19 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>810.56882955</v>
+        <v>754.00108084</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>3712145.335436909</v>
+        <v>3453083.184445275</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3822,7 +5109,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>28075715000122</v>
@@ -3834,19 +5121,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.8674852</v>
+        <v>1.7189576</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>2165690.426455278</v>
+        <v>1993445.526530835</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3854,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>38443675000188</v>
@@ -3866,19 +5153,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7973108</v>
+        <v>0.715626</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>1390626.800013639</v>
+        <v>1248156.546213297</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3886,7 +5173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>31608459000104</v>
@@ -3898,19 +5185,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.4381676</v>
+        <v>1.3975592</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J8">
-        <v>1618476.450648358</v>
+        <v>1572776.812373577</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3918,7 +5205,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>31666901000140</v>
@@ -3930,19 +5217,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.8285708</v>
+        <v>1.5876465</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>1120561.841496252</v>
+        <v>972921.6313008387</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3950,31 +5237,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>18644570000180</v>
       </c>
       <c r="D10">
-        <v>563096.71389</v>
+        <v>281878.39158974</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.3606329</v>
+        <v>3.075902</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10">
-        <v>1892361.342580621</v>
+        <v>867030.3084476645</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3982,7 +5269,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>14781366000150</v>
@@ -3994,19 +5281,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.8799694</v>
+        <v>3.4690066</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J11">
-        <v>3483493.842615973</v>
+        <v>3114525.369992396</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4014,31 +5301,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C12">
-        <v>44162109000109</v>
+        <v>10843445000197</v>
       </c>
       <c r="D12">
-        <v>408226.30723275</v>
+        <v>225.54252658</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.03407372</v>
+        <v>2.55429217</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J12">
-        <v>422136.0961220327</v>
+        <v>576.1015096453109</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4046,31 +5333,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C13">
-        <v>45683352000127</v>
+        <v>44162109000109</v>
       </c>
       <c r="D13">
-        <v>408219.53387451</v>
+        <v>50885.63753652</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.03409099</v>
+        <v>1.03762088</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J13">
-        <v>422136.1419216305</v>
+        <v>52800.00000000491</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4078,31 +5365,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C14">
-        <v>45688718000150</v>
+        <v>45683352000127</v>
       </c>
       <c r="D14">
-        <v>408219.53387451</v>
+        <v>50884.79583494</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.03409099</v>
+        <v>1.03763817</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J14">
-        <v>422136.1419216305</v>
+        <v>52800.00643099076</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4110,31 +5397,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C15">
-        <v>46328929000145</v>
+        <v>45688718000150</v>
       </c>
       <c r="D15">
-        <v>408220.26356249</v>
+        <v>50884.79012761</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.03408917</v>
+        <v>1.03763816</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J15">
-        <v>422136.1535245165</v>
+        <v>52799.9999999994</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4142,31 +5429,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C16">
-        <v>46098698000120</v>
+        <v>46328929000145</v>
       </c>
       <c r="D16">
-        <v>408251.250251</v>
+        <v>50884.8882059</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.03401065</v>
+        <v>1.03763616</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J16">
-        <v>422136.1406353491</v>
+        <v>52799.99999999937</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4174,31 +5461,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C17">
-        <v>32319500000187</v>
+        <v>46098698000120</v>
       </c>
       <c r="D17">
-        <v>408211.6068196</v>
+        <v>50888.74543446</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.03411121</v>
+        <v>1.03755751</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J17">
-        <v>422136.1986642608</v>
+        <v>52800.00000000219</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4206,31 +5493,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C18">
-        <v>46328987000179</v>
+        <v>32319500000187</v>
       </c>
       <c r="D18">
-        <v>408219.05602174</v>
+        <v>50883.80172411</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.03409214</v>
+        <v>1.0376583</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J18">
-        <v>422136.117230301</v>
+        <v>52799.99919457705</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4238,31 +5525,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C19">
-        <v>45688636000106</v>
+        <v>46328987000179</v>
       </c>
       <c r="D19">
-        <v>408246.68061395</v>
+        <v>50884.73373277</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.03402221</v>
+        <v>1.03763931</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>422136.1349136007</v>
+        <v>52800.0000000052</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4270,31 +5557,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C20">
-        <v>46328680000178</v>
+        <v>45688636000106</v>
       </c>
       <c r="D20">
-        <v>408220.23363896</v>
+        <v>50888.17551848</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.03408929</v>
+        <v>1.03756913</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J20">
-        <v>422136.1715673463</v>
+        <v>52799.99999999659</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4302,31 +5589,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C21">
-        <v>46328752000187</v>
+        <v>46328680000178</v>
       </c>
       <c r="D21">
-        <v>408220.24419256</v>
+        <v>50884.87059677</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.03408925</v>
+        <v>1.03763637</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J21">
-        <v>422136.1661519013</v>
+        <v>52799.99241395215</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4334,31 +5621,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C22">
-        <v>31366337000140</v>
+        <v>46328752000187</v>
       </c>
       <c r="D22">
-        <v>1519766.63854974</v>
+        <v>50884.87104276</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.3603256</v>
+        <v>1.03763634</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J22">
-        <v>3587144.102994898</v>
+        <v>52799.99135018147</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4366,31 +5653,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C23">
-        <v>18422272000145</v>
+        <v>31366337000140</v>
       </c>
       <c r="D23">
-        <v>310988.91960438</v>
+        <v>1519766.63854974</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.2563006</v>
+        <v>2.1034743</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J23">
-        <v>1012673.405501094</v>
+        <v>3196790.066186767</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4398,31 +5685,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C24">
-        <v>38444031000104</v>
+        <v>18422272000145</v>
       </c>
       <c r="D24">
-        <v>1784061.85047946</v>
+        <v>310988.91960438</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6978869</v>
+        <v>3.2226265</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J24">
-        <v>1245073.394239374</v>
+        <v>1002201.133523444</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4430,7 +5717,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>32683901000111</v>
@@ -4442,19 +5729,19 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.3610281</v>
+        <v>1.3524254</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J25">
-        <v>1689447.173775037</v>
+        <v>1678768.623345524</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4462,7 +5749,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C26">
         <v>35700369000191</v>
@@ -4474,19 +5761,19 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.3453445</v>
+        <v>1.3468497</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J26">
-        <v>1065385.961477375</v>
+        <v>1066577.937918514</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4494,7 +5781,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C27">
         <v>41000792000181</v>
@@ -4506,19 +5793,19 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.2098948</v>
+        <v>1.2025441</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J27">
-        <v>2320986.616499261</v>
+        <v>2306885.492730565</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4526,7 +5813,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>28951307000197</v>
@@ -4538,19 +5825,19 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2.1038341</v>
+        <v>2.1038491</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J28">
-        <v>5023838.535056137</v>
+        <v>5023874.354219838</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4558,7 +5845,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C29">
         <v>36857756000107</v>
@@ -4570,19 +5857,19 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.213756</v>
+        <v>1.1653121</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J29">
-        <v>1320155.253433125</v>
+        <v>1267464.705183074</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4590,7 +5877,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>40319225000120</v>
@@ -4602,19 +5889,19 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.1286141</v>
+        <v>1.1332439</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J30">
-        <v>64657.61148708344</v>
+        <v>64922.84989732739</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4622,7 +5909,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C31">
         <v>40319218000128</v>
@@ -4634,19 +5921,19 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>111.8830142</v>
+        <v>121.1709247</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J31">
-        <v>272358.8750920928</v>
+        <v>294968.6061028617</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4654,7 +5941,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C32">
         <v>13000859000142</v>
@@ -4666,19 +5953,19 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>4.3780264</v>
+        <v>4.3322023</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J32">
-        <v>1125716.964196872</v>
+        <v>1113934.265321631</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4686,7 +5973,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C33">
         <v>19009392000188</v>
@@ -4698,19 +5985,19 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>5.3172562</v>
+        <v>5.3174397</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J33">
-        <v>2260539.815418385</v>
+        <v>2260617.827280242</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4718,7 +6005,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C34">
         <v>31608483000135</v>
@@ -4730,19 +6017,19 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.924507</v>
+        <v>1.8453149</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J34">
-        <v>1992651.762067936</v>
+        <v>1910655.553373003</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4750,7 +6037,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C35">
         <v>29236579000178</v>
@@ -4762,19 +6049,19 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.7136262</v>
+        <v>1.6953426</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J35">
-        <v>2199025.605863582</v>
+        <v>2175563.018417518</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4782,7 +6069,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C36">
         <v>35819274000191</v>
@@ -4794,19 +6081,19 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.24171941</v>
+        <v>1.24521307</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J36">
-        <v>1150729.938160377</v>
+        <v>1153967.593240403</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4814,7 +6101,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>31713505000127</v>
@@ -4826,19 +6113,19 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2022.5199984</v>
+        <v>2040.184457</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J37">
-        <v>653049.9529144288</v>
+        <v>658753.6165944492</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4846,31 +6133,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C38">
         <v>31713585000110</v>
       </c>
       <c r="D38">
-        <v>19188.2294422</v>
+        <v>58727.87201965</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.1363473</v>
+        <v>1.140927</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J38">
-        <v>21804.49271842448</v>
+        <v>67004.21483976321</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4878,31 +6165,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C39">
-        <v>30654823000100</v>
+        <v>42776581000106</v>
       </c>
       <c r="D39">
-        <v>1500.00000236</v>
+        <v>1447166.31585735</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1279.35696782</v>
+        <v>1.11454957</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J39">
-        <v>1919035.454749282</v>
+        <v>1612938.595057294</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4910,31 +6197,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C40">
-        <v>44162109000109</v>
+        <v>30654823000100</v>
       </c>
       <c r="D40">
-        <v>788886.9220210901</v>
+        <v>1500.00000236</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.03407372</v>
+        <v>1283.61528772</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J40">
-        <v>815767.2341136986</v>
+        <v>1925422.934609332</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4942,31 +6229,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C41">
-        <v>45683352000127</v>
+        <v>10843445000197</v>
       </c>
       <c r="D41">
-        <v>788873.7523457099</v>
+        <v>317944.69618294</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.03409099</v>
+        <v>2.55564653</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J41">
-        <v>815767.2395481899</v>
+        <v>812554.2595318349</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4974,31 +6261,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C42">
-        <v>45688718000150</v>
+        <v>44162109000109</v>
       </c>
       <c r="D42">
-        <v>788873.7523457099</v>
+        <v>113720.39701052</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.03409099</v>
+        <v>1.03812992</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J42">
-        <v>815767.2395481899</v>
+        <v>118056.5466508994</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5006,31 +6293,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C43">
-        <v>46328929000145</v>
+        <v>45683352000127</v>
       </c>
       <c r="D43">
-        <v>788875.12894593</v>
+        <v>113718.47620131</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.03408917</v>
+        <v>1.03814721</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J43">
-        <v>815767.2273253397</v>
+        <v>118056.5187938414</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5038,31 +6325,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C44">
-        <v>46098698000120</v>
+        <v>45688718000150</v>
       </c>
       <c r="D44">
-        <v>788935.03866691</v>
+        <v>113718.46621027</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.03401065</v>
+        <v>1.03814719</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J44">
-        <v>815767.2321397467</v>
+        <v>118056.5061473018</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -5070,31 +6357,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C45">
-        <v>32319500000187</v>
+        <v>46328929000145</v>
       </c>
       <c r="D45">
-        <v>788858.32710037</v>
+        <v>113718.54885789</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.03411121</v>
+        <v>1.0381452</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J45">
-        <v>815767.2391563394</v>
+        <v>118056.365647784</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -5102,31 +6389,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C46">
-        <v>46328987000179</v>
+        <v>46098698000120</v>
       </c>
       <c r="D46">
-        <v>788872.86520529</v>
+        <v>113727.2729283</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.03409214</v>
+        <v>1.03806651</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J46">
-        <v>815767.2293680699</v>
+        <v>118056.4733004978</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5134,31 +6421,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C47">
-        <v>45688636000106</v>
+        <v>32319500000187</v>
       </c>
       <c r="D47">
-        <v>788926.2195196199</v>
+        <v>113716.14233515</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.03402221</v>
+        <v>1.03816734</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J47">
-        <v>815767.2330346226</v>
+        <v>118056.3850031441</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5166,31 +6453,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C48">
-        <v>46328680000178</v>
+        <v>46328987000179</v>
       </c>
       <c r="D48">
-        <v>788875.0448202</v>
+        <v>113718.33171617</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.03408929</v>
+        <v>1.03814835</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J48">
-        <v>815767.2349968388</v>
+        <v>118056.4984358945</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5198,31 +6485,1018 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C49">
+        <v>45688636000106</v>
+      </c>
+      <c r="D49">
+        <v>113726.01112324</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1.03807814</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49">
+        <v>118056.4860964323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50">
+        <v>46328680000178</v>
+      </c>
+      <c r="D50">
+        <v>113718.59321889</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1.03814541</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50">
+        <v>118056.4355818478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51">
         <v>46328752000187</v>
       </c>
-      <c r="D49">
-        <v>788875.07541137</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1.03408925</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="D51">
+        <v>113718.59893419</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1.03814538</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51">
+        <v>118056.4381036023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <v>2063.83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>2063.83</v>
+      </c>
+      <c r="H3">
+        <v>2063.83</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2">
+        <v>20221117</v>
+      </c>
+      <c r="E2">
+        <v>1442661.39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <v>20221118</v>
+      </c>
+      <c r="E3">
+        <v>2959937.33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4">
+        <v>20230116</v>
+      </c>
+      <c r="E4">
+        <v>3473.68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5">
+        <v>20221207</v>
+      </c>
+      <c r="E5">
+        <v>375.42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6">
+        <v>20221214</v>
+      </c>
+      <c r="E6">
+        <v>7.79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7">
+        <v>20221207</v>
+      </c>
+      <c r="E7">
+        <v>60.66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>15</v>
       </c>
-      <c r="J49">
-        <v>815767.2350758371</v>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8">
+        <v>20221214</v>
+      </c>
+      <c r="E8">
+        <v>24.02</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>20221130</v>
+      </c>
+      <c r="E9">
+        <v>88.39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>20221230</v>
+      </c>
+      <c r="E10">
+        <v>953.1799999999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>20221229</v>
+      </c>
+      <c r="E11">
+        <v>7767.03</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12">
+        <v>20221117</v>
+      </c>
+      <c r="E12">
+        <v>46587</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13">
+        <v>20221117</v>
+      </c>
+      <c r="E13">
+        <v>512457</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14">
+        <v>20221117</v>
+      </c>
+      <c r="E14">
+        <v>58.23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>20221229</v>
+      </c>
+      <c r="E15">
+        <v>3763.48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>20221230</v>
+      </c>
+      <c r="E16">
+        <v>7337.11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>20230630</v>
+      </c>
+      <c r="E17">
+        <v>2711.19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>20231229</v>
+      </c>
+      <c r="E18">
+        <v>2711.19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>20221201</v>
+      </c>
+      <c r="E19">
+        <v>360.91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>20231229</v>
+      </c>
+      <c r="E20">
+        <v>5230.76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>20231229</v>
+      </c>
+      <c r="E21">
+        <v>3621.55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>20230630</v>
+      </c>
+      <c r="E22">
+        <v>3621.55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23">
+        <v>20221117</v>
+      </c>
+      <c r="E23">
+        <v>668935.9300000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>20221118</v>
+      </c>
+      <c r="E24">
+        <v>865000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25">
+        <v>20221117</v>
+      </c>
+      <c r="E25">
+        <v>13039.79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26">
+        <v>20221202</v>
+      </c>
+      <c r="E26">
+        <v>6586.89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27">
+        <v>20221207</v>
+      </c>
+      <c r="E27">
+        <v>280</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28">
+        <v>20230116</v>
+      </c>
+      <c r="E28">
+        <v>3552.63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29">
+        <v>20221214</v>
+      </c>
+      <c r="E29">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30">
+        <v>20221207</v>
+      </c>
+      <c r="E30">
+        <v>58.25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31">
+        <v>20221130</v>
+      </c>
+      <c r="E31">
+        <v>127.74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32">
+        <v>20221230</v>
+      </c>
+      <c r="E32">
+        <v>1231.16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33">
+        <v>20221202</v>
+      </c>
+      <c r="E33">
+        <v>9899.33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34">
+        <v>20221207</v>
+      </c>
+      <c r="E34">
+        <v>395.97</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>48.86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>560</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>750.84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>13.05</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>97.42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>723.17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>34.28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>80.2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
